--- a/Supporting Resources/app/server/report.xlsx
+++ b/Supporting Resources/app/server/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32" count="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66" count="66">
   <x:si>
     <x:t>question</x:t>
   </x:si>
@@ -43,7 +43,121 @@
     <x:t>qoid</x:t>
   </x:si>
   <x:si>
-    <x:t>Has the organization defined a set of risks by which applications could be prioritized?</x:t>
+    <x:t>answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Do you use repeatable deployment processes?
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Implementation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Secure Deployment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>check</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Auditor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Mar 10 2020 12:51:27 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I-SD-A-1-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yes, for most of the applications
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Are deployment processes automated and taking into account security?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Mar 10 2020 12:53:48 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I-SD-A-2-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yes, for some applications</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Mar 10 2020 12:54:41 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Mar 10 2020 13:14:53 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>checking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Mar 10 2020 13:18:30 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Mar 10 2020 13:28:00 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Are you classifying applications according to business risk based on a simple, but predefined set of questions?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Design</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Threat Assessment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Mar 11 2020 14:56:16 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D-TA-A-1-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yes, the most of them</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Mar 11 2020 15:07:21 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yes, at least half of them</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Mar 11 2020 18:19:21 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Do you track all known security defects in a central location per defined scope?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Defect Management</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Mar 12 2020 12:53:01 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I-DM-A-1-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yes, for at least half of the applications</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Has the organization defined a set of risks by which applications could be prioritized?
+</x:t>
   </x:si>
   <x:si>
     <x:t>Governance</x:t>
@@ -52,64 +166,56 @@
     <x:t>Strategy &amp; Metrics</x:t>
   </x:si>
   <x:si>
-    <x:t>demo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Auditor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jul 19 2019 17:42:04 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Is there a formal user access registration process in place?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Regulatory Compliance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Security Procedure and Policies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020 demo1</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>Fri Jan 10 2020 11:34:30 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Is there a formal user access provisioning process in place to assign access rights for all user types and services?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23hdsjjkl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jan 16 2020 22:49:30 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Is there a policy document covering the organisations practices in how secret authentication information must be handled?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Jan 16 2020 23:15:15 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Is the organisations approach to managing information security subject to regular independent review?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>demo </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sun Jan 19 2020 16:09:03 GMT+0530 (India Standard Time)</x:t>
+    <x:t>Thu Mar 12 2020 15:13:23 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G-SM-A-1-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yes, covers most significant risks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Is there a centralized portal where developers and application security professionals from different teams and business units are able to communicate and share information?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Education &amp; Guidance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Mar 12 2020 15:25:47 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G-EG-B-3-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yes, effective for most of the organization</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Have you identified a Security Champion for each development team?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Mar 12 2020 15:29:34 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G-EG-B-1-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Do project teams specify security requirements during development?
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Security Requirements</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Mar 12 2020 15:32:03 GMT+0000 (Greenwich Mean Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D-SR-A-1-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yes, some of them</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -472,7 +578,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
+    <x:row r="1" spans="1:10">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -500,150 +606,456 @@
       <x:c r="I1" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:9">
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:10">
       <x:c r="A2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="n">
-        <x:v>0.5</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:9">
-      <x:c r="A3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="n">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>18</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="H3" s="0" t="n">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
+      <x:c r="J3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:9">
+    <x:row r="4" spans="1:10">
       <x:c r="A4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="H4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:9">
-      <x:c r="A5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="n">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:9">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10">
       <x:c r="A6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="H7" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="n">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="G10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="n">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="n">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="n">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="n">
-        <x:v>0.5</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="D15" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="n">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>65</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
